--- a/하기휴가 계획_2023(IS 2팀).xlsx
+++ b/하기휴가 계획_2023(IS 2팀).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pmoo365-my.sharepoint.com/personal/hjkimf_pulmuone_com/Documents/업무/김행직/업무/문서/시스템운영/하이톡/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pulmuone\git_sample\new_folder\firstgitrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{9573783B-2AB5-4F76-865B-42C29C6E296E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50BFE5BA-0D4E-4B69-828A-9EDD0C100E11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79F2CC-0E42-4452-82D8-CE15AC514873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>김행직</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t xml:space="preserve">                                  27~28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획없음 반차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1499,7 +1503,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1511,15 +1515,15 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1533,7 +1537,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1543,7 +1547,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1553,7 +1557,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1569,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1577,12 +1581,12 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1600,9 +1604,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1784,26 +1791,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{652F9856-DF96-485F-AAAA-19FFF226E838}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D605AE3-F670-4B26-8D8E-0B8DAFBD448E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7c7781c9-c3d8-41cf-9ace-2b84307c9c68"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1827,9 +1823,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D605AE3-F670-4B26-8D8E-0B8DAFBD448E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{652F9856-DF96-485F-AAAA-19FFF226E838}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7c7781c9-c3d8-41cf-9ace-2b84307c9c68"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>